--- a/scrap/old BLM/full_organic - TOX.sim.xlsx
+++ b/scrap/old BLM/full_organic - TOX.sim.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\parameter file format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4300D12C-F0DD-48F2-AF47-EF1AFC397566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA2589A-654F-42F4-8ED8-A1A292AC7B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="full_organic.sim" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Ver 3.57.2.49, build 2022-03-30</t>
   </si>
@@ -28,10 +28,10 @@
     <t>C:\Program Files (x86)\Biotic Ligand Model - Research Mode\Model\Cu_freshwater_acute_and_chronic_2017-01-17.dat</t>
   </si>
   <si>
-    <t>C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\parameter file format\full_organic.blm</t>
-  </si>
-  <si>
-    <t>/S C:\USERS\KELLYC\DOCUMENTS\BLM DEVELOPMENT\ENGINE\BLMENGINEINR\SCRAP\PARAMETER FILE FORMAT\FULL_ORGANIC.SCR, /W /Q /VER3.57 /O3 /L /CA1</t>
+    <t>C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\full_organic.blm</t>
+  </si>
+  <si>
+    <t>/S FULL_ORGANIC.BLMSCR, /W /Q /VER3.57 /O3 /L</t>
   </si>
   <si>
     <t>Site Label</t>
@@ -130,14 +130,53 @@
     <t>"Hard ser 7          "</t>
   </si>
   <si>
-    <t>Total BL-Cu</t>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>T.Cu</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Full_Organic</t>
+  </si>
+  <si>
+    <t>Hard ser 1</t>
+  </si>
+  <si>
+    <t>Hard ser 2</t>
+  </si>
+  <si>
+    <t>Hard ser 3</t>
+  </si>
+  <si>
+    <t>Hard ser 4</t>
+  </si>
+  <si>
+    <t>Hard ser 5</t>
+  </si>
+  <si>
+    <t>Hard ser 6</t>
+  </si>
+  <si>
+    <t>Hard ser 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -146,12 +185,6 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,10 +217,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,6 +233,1005 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Diss Cu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>full_organic.sim!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1762780971480424E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1556839041304556E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2691495854255663E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.504429469889601E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8904948717590742E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7002860392144612E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6524625102174468E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>full_organic.sim!$G$20:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.6836809999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4452600000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5224649999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5122099999999995E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3423909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4325790000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7640530000000002E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89F4-4896-8BCA-8460BE37E89C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Free Cu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>full_organic.sim!$F$7:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.177410113850641E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4989647023622155E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4135962672922062E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8628389376071937E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6067079584897215E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4259288194651276E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6263002883553099E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>full_organic.sim!$H$20:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.9054029999999997E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2829400000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.096111E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3091700000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3977730000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.035269E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6777169999999999E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89F4-4896-8BCA-8460BE37E89C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1180684847"/>
+        <c:axId val="1171687023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1180684847"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000005E-7"/>
+          <c:min val="1.0000000000000006E-11"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171687023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1171687023"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000005E-7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180684847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B078E4-D159-8887-9CE3-5E26939E0119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,40 +1531,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="10" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -593,11 +1621,8 @@
       <c r="S5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
@@ -643,11 +1668,8 @@
       <c r="S6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="7" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -661,19 +1683,19 @@
         <v>7.570000171661377</v>
       </c>
       <c r="E7" s="1">
-        <v>4.2112029063900991E-7</v>
+        <v>1.1762780971480424E-8</v>
       </c>
       <c r="F7" s="1">
-        <v>7.4392610127649306E-11</v>
+        <v>1.177410113850641E-10</v>
       </c>
       <c r="G7" s="1">
-        <v>4.2032970037606243E-7</v>
+        <v>1.0758038168460874E-8</v>
       </c>
       <c r="H7" s="1">
-        <v>5.1622853553779234E-2</v>
+        <v>5.1436193813903137E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>3.840422986882263E-3</v>
+        <v>3.9572222288143007E-3</v>
       </c>
       <c r="J7" s="1">
         <v>0.10000000474974513</v>
@@ -682,22 +1704,22 @@
         <v>9.9999997473787516E-4</v>
       </c>
       <c r="L7" s="1">
-        <v>1.6567700544811714E-9</v>
+        <v>6.6400003561284393E-5</v>
       </c>
       <c r="M7" s="1">
-        <v>1.3783200136785467E-9</v>
+        <v>3.3529999200254679E-5</v>
       </c>
       <c r="N7" s="1">
-        <v>1.8399499701615696E-9</v>
+        <v>4.2280000343453139E-5</v>
       </c>
       <c r="O7" s="1">
-        <v>1.4808800019583401E-10</v>
+        <v>5.7880001804733183E-6</v>
       </c>
       <c r="P7" s="1">
-        <v>1.0409999685184745E-12</v>
+        <v>1.0000000116860974E-7</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.4469899887667448E-12</v>
+        <v>5.1280000690212546E-8</v>
       </c>
       <c r="R7" s="1">
         <v>3.5009998828172684E-4</v>
@@ -705,12 +1727,8 @@
       <c r="S7" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="T7">
-        <f>H7+I7</f>
-        <v>5.5463276540661494E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -724,19 +1742,19 @@
         <v>7.570000171661377</v>
       </c>
       <c r="E8" s="1">
-        <v>4.1750647028493404E-7</v>
+        <v>1.1556839041304556E-8</v>
       </c>
       <c r="F8" s="1">
-        <v>7.4300753050149382E-11</v>
+        <v>1.4989647023622155E-10</v>
       </c>
       <c r="G8" s="1">
-        <v>4.1671422767724642E-7</v>
+        <v>1.0314496953690757E-8</v>
       </c>
       <c r="H8" s="1">
-        <v>5.1559206257300913E-2</v>
+        <v>5.1462489119456452E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>3.8356878828294445E-3</v>
+        <v>3.9468546123063129E-3</v>
       </c>
       <c r="J8" s="1">
         <v>0.10000000474974513</v>
@@ -745,22 +1763,22 @@
         <v>9.9999997473787516E-4</v>
       </c>
       <c r="L8" s="1">
-        <v>3.3135401089623429E-9</v>
+        <v>1.3280000712256879E-4</v>
       </c>
       <c r="M8" s="1">
-        <v>2.7607500729942558E-9</v>
+        <v>6.7059998400509357E-5</v>
       </c>
       <c r="N8" s="1">
-        <v>3.6798899483159175E-9</v>
+        <v>8.4560000686906278E-5</v>
       </c>
       <c r="O8" s="1">
-        <v>2.9668800749504953E-10</v>
+        <v>1.1580000318645034E-5</v>
       </c>
       <c r="P8" s="1">
-        <v>6.8185401769227383E-10</v>
+        <v>6.553999992320314E-5</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.4773400238779004E-10</v>
+        <v>3.3619999157963321E-5</v>
       </c>
       <c r="R8" s="1">
         <v>3.5009998828172684E-4</v>
@@ -768,12 +1786,8 @@
       <c r="S8" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="T8">
-        <f t="shared" ref="T8:T13" si="0">H8+I8</f>
-        <v>5.5394894140130359E-2</v>
-      </c>
     </row>
-    <row r="9" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -787,19 +1801,19 @@
         <v>7.570000171661377</v>
       </c>
       <c r="E9" s="1">
-        <v>4.0683346469450044E-7</v>
+        <v>1.2691495854255663E-8</v>
       </c>
       <c r="F9" s="1">
-        <v>7.4322867305021134E-11</v>
+        <v>2.4135962672922062E-10</v>
       </c>
       <c r="G9" s="1">
-        <v>4.0604065473836195E-7</v>
+        <v>1.0810423448506205E-8</v>
       </c>
       <c r="H9" s="1">
-        <v>5.1574401990541342E-2</v>
+        <v>5.1449304943625637E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>3.8368178999010649E-3</v>
+        <v>3.9150448384350561E-3</v>
       </c>
       <c r="J9" s="1">
         <v>0.10000000474974513</v>
@@ -808,22 +1822,22 @@
         <v>9.9999997473787516E-4</v>
       </c>
       <c r="L9" s="1">
-        <v>8.2813498281097964E-9</v>
+        <v>3.3189999521709979E-4</v>
       </c>
       <c r="M9" s="1">
-        <v>6.8998100566375342E-9</v>
+        <v>1.6769999638199806E-4</v>
       </c>
       <c r="N9" s="1">
-        <v>9.1953795688937134E-9</v>
+        <v>2.1139999444130808E-4</v>
       </c>
       <c r="O9" s="1">
-        <v>7.391630085784584E-10</v>
+        <v>2.8930000553373247E-5</v>
       </c>
       <c r="P9" s="1">
-        <v>3.7632101879125912E-9</v>
+        <v>3.6149998777545989E-4</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.2294599761637528E-9</v>
+        <v>1.8540000019129366E-4</v>
       </c>
       <c r="R9" s="1">
         <v>3.5009998828172684E-4</v>
@@ -831,12 +1845,8 @@
       <c r="S9" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>5.5411219890442405E-2</v>
-      </c>
     </row>
-    <row r="10" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -850,19 +1860,19 @@
         <v>7.570000171661377</v>
       </c>
       <c r="E10" s="1">
-        <v>3.8906995314391679E-7</v>
+        <v>1.504429469889601E-8</v>
       </c>
       <c r="F10" s="1">
-        <v>7.4320889720258521E-11</v>
+        <v>3.8628389376071937E-10</v>
       </c>
       <c r="G10" s="1">
-        <v>3.8827721688344339E-7</v>
+        <v>1.2207336721911956E-8</v>
       </c>
       <c r="H10" s="1">
-        <v>5.1572830963175074E-2</v>
+        <v>5.1471981487608343E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>3.8367008596638498E-3</v>
+        <v>3.8915155255880847E-3</v>
       </c>
       <c r="J10" s="1">
         <v>0.10000000474974513</v>
@@ -871,22 +1881,22 @@
         <v>9.9999997473787516E-4</v>
       </c>
       <c r="L10" s="1">
-        <v>1.6567700100722504E-8</v>
+        <v>6.6399999195709825E-4</v>
       </c>
       <c r="M10" s="1">
-        <v>1.379549985358608E-8</v>
+        <v>3.3529999200254679E-4</v>
       </c>
       <c r="N10" s="1">
-        <v>1.8390799993994733E-8</v>
+        <v>4.2279998888261616E-4</v>
       </c>
       <c r="O10" s="1">
-        <v>1.4808799742027645E-9</v>
+        <v>5.7879999076249078E-5</v>
       </c>
       <c r="P10" s="1">
-        <v>8.8984597468311222E-9</v>
+        <v>8.5479998961091042E-4</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.2362799672871461E-8</v>
+        <v>4.3829999049194157E-4</v>
       </c>
       <c r="R10" s="1">
         <v>3.5009998828172684E-4</v>
@@ -894,12 +1904,8 @@
       <c r="S10" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>5.5409531822838927E-2</v>
-      </c>
     </row>
-    <row r="11" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -913,19 +1919,19 @@
         <v>7.570000171661377</v>
       </c>
       <c r="E11" s="1">
-        <v>3.5376461937630665E-7</v>
+        <v>1.8904948717590742E-8</v>
       </c>
       <c r="F11" s="1">
-        <v>7.4292495766403732E-11</v>
+        <v>6.6067079584897215E-10</v>
       </c>
       <c r="G11" s="1">
-        <v>3.529678666594574E-7</v>
+        <v>1.4387202406500548E-8</v>
       </c>
       <c r="H11" s="1">
-        <v>5.1552746623538578E-2</v>
+        <v>5.1505233011492166E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>3.8352059391579328E-3</v>
+        <v>3.8693660353341331E-3</v>
       </c>
       <c r="J11" s="1">
         <v>0.10000000474974513</v>
@@ -934,22 +1940,22 @@
         <v>9.9999997473787516E-4</v>
       </c>
       <c r="L11" s="1">
-        <v>3.3135400201445009E-8</v>
+        <v>1.3279999839141965E-3</v>
       </c>
       <c r="M11" s="1">
-        <v>2.7590999707172159E-8</v>
+        <v>6.7059998400509357E-4</v>
       </c>
       <c r="N11" s="1">
-        <v>3.678150051200646E-8</v>
+        <v>8.4559997776523232E-4</v>
       </c>
       <c r="O11" s="1">
-        <v>2.9617699404127507E-9</v>
+        <v>1.1580000136746094E-4</v>
       </c>
       <c r="P11" s="1">
-        <v>1.9175200094423417E-8</v>
+        <v>1.8420000560581684E-3</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.6635300187649591E-8</v>
+        <v>9.4429997261613607E-4</v>
       </c>
       <c r="R11" s="1">
         <v>3.5009998828172684E-4</v>
@@ -957,12 +1963,8 @@
       <c r="S11" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>5.5387952562696512E-2</v>
-      </c>
     </row>
-    <row r="12" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -976,19 +1978,19 @@
         <v>7.570000171661377</v>
       </c>
       <c r="E12" s="1">
-        <v>2.5022853833434056E-7</v>
+        <v>2.7002860392144612E-8</v>
       </c>
       <c r="F12" s="1">
-        <v>7.4323380783170023E-11</v>
+        <v>1.4259288194651276E-9</v>
       </c>
       <c r="G12" s="1">
-        <v>2.4942091110568508E-7</v>
+        <v>1.8289011317282435E-8</v>
       </c>
       <c r="H12" s="1">
-        <v>5.1572695115439431E-2</v>
+        <v>5.1522334692636354E-2</v>
       </c>
       <c r="I12" s="1">
-        <v>3.8366882301360569E-3</v>
+        <v>3.8389397203309312E-3</v>
       </c>
       <c r="J12" s="1">
         <v>0.10000000474974513</v>
@@ -997,22 +1999,22 @@
         <v>9.9999997473787516E-4</v>
       </c>
       <c r="L12" s="1">
-        <v>8.2813500057454803E-8</v>
+        <v>3.3189998939633369E-3</v>
       </c>
       <c r="M12" s="1">
-        <v>6.8998097901840083E-8</v>
+        <v>1.6769999638199806E-3</v>
       </c>
       <c r="N12" s="1">
-        <v>9.1953801018007653E-8</v>
+        <v>2.1140000317245722E-3</v>
       </c>
       <c r="O12" s="1">
-        <v>7.399299839505602E-9</v>
+        <v>2.8929999098181725E-4</v>
       </c>
       <c r="P12" s="1">
-        <v>4.9978300609154758E-8</v>
+        <v>4.801000002771616E-3</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.944409847164934E-8</v>
+        <v>2.4619998876005411E-3</v>
       </c>
       <c r="R12" s="1">
         <v>3.5009998828172684E-4</v>
@@ -1020,12 +2022,8 @@
       <c r="S12" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>5.5409383345575484E-2</v>
-      </c>
     </row>
-    <row r="13" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1039,19 +2037,19 @@
         <v>7.570000171661377</v>
       </c>
       <c r="E13" s="1">
-        <v>9.501326303507085E-8</v>
+        <v>3.6524625102174468E-8</v>
       </c>
       <c r="F13" s="1">
-        <v>7.4310266273691639E-11</v>
+        <v>2.6263002883553099E-9</v>
       </c>
       <c r="G13" s="1">
-        <v>9.4190680051186628E-8</v>
+        <v>2.193830957223829E-8</v>
       </c>
       <c r="H13" s="1">
-        <v>5.1559230897421052E-2</v>
+        <v>5.1571913534753572E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>3.8356965568833849E-3</v>
+        <v>3.8160156082981027E-3</v>
       </c>
       <c r="J13" s="1">
         <v>0.10000000474974513</v>
@@ -1060,22 +2058,22 @@
         <v>9.9999997473787516E-4</v>
       </c>
       <c r="L13" s="1">
-        <v>1.6567699390179769E-7</v>
+        <v>6.6399998031556606E-3</v>
       </c>
       <c r="M13" s="1">
-        <v>1.379549985358608E-7</v>
+        <v>3.3529999200254679E-3</v>
       </c>
       <c r="N13" s="1">
-        <v>1.8390799993994733E-7</v>
+        <v>4.2280000634491444E-3</v>
       </c>
       <c r="O13" s="1">
-        <v>1.4803699599497122E-8</v>
+        <v>5.7879998348653316E-4</v>
       </c>
       <c r="P13" s="1">
-        <v>1.0131999772511335E-7</v>
+        <v>9.7329998388886452E-3</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.40834004014323E-7</v>
+        <v>4.9930000677704811E-3</v>
       </c>
       <c r="R13" s="1">
         <v>3.5009998828172684E-4</v>
@@ -1083,9 +2081,186 @@
       <c r="S13" s="1">
         <v>3.1187600994218811E-20</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>5.5394927454304438E-2</v>
+    </row>
+    <row r="19" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2.6836809999999999E-9</v>
+      </c>
+      <c r="H20" s="3">
+        <v>9.9054029999999997E-11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3.4452600000000002E-9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.2829400000000001E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5.5224649999999999E-9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2.096111E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="3">
+        <v>8.5122099999999995E-9</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.3091700000000001E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.3423909999999999E-8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5.3977730000000004E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.4325790000000001E-8</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1.035269E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3.7640530000000002E-8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1.6777169999999999E-9</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +2268,8 @@
   <pageMargins left="1.5" right="1.5" top="1.5" bottom="1.5" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>BLM version Ver 3.57.2.49, build 2022-03-30</oddHeader>
-    <oddFooter>BLM Output File, C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\parameter file format\full_organic.sim.xls, created 11-20-2023</oddFooter>
+    <oddFooter>BLM Output File, C:\Users\kellyc\Documents\BLM Development\engine\BLMEngineInR\scrap\old BLM\full_organic.sim.xls, created 12-21-2023</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>